--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.125</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">

--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>8.333333333333334</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>1.222222222222222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">

--- a/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/291024_analysis_by_image_NEW.xlsx
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="17">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="24">
